--- a/update_data/data/suning_biu/qa/问  答.xlsx
+++ b/update_data/data/suning_biu/qa/问  答.xlsx
@@ -38390,13 +38390,14 @@
 </file>
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="6">
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="7">
   <userInfo guid="{8F2D5F1F-0E3F-42D3-B0D8-D9E8C7B7EF76}" name="fang.gao(高芳)" id="-240587324" dateTime="2017-11-06T09:25:34"/>
   <userInfo guid="{BAD164E4-F9DB-4F97-8CA8-80DCD8C4C292}" name="lulu.wang(王路路)" id="-627584157" dateTime="2017-11-06T09:36:56"/>
   <userInfo guid="{01BD2E52-A158-4DD2-9B0E-0E9C0DC887F9}" name="fang.gao(高芳)" id="-240616071" dateTime="2017-11-07T09:44:23"/>
   <userInfo guid="{3FA698B6-88FF-45F6-9038-7945F3FA9652}" name="fang.gao(高芳)" id="-240623782" dateTime="2017-11-07T12:37:05"/>
   <userInfo guid="{1E7C1B67-88A2-432D-B91B-46088F90819F}" name="fang.gao(高芳)" id="-240613000" dateTime="2017-11-07T13:32:23"/>
   <userInfo guid="{1E7C1B67-88A2-432D-B91B-46088F90819F}" name="fang.gao(高芳)" id="-240591958" dateTime="2017-11-07T13:37:59"/>
+  <userInfo guid="{541F9C8C-6129-4B86-8146-4709B1ED7589}" name="xin.zheng(郑新)" id="-383399962" dateTime="2017-11-29T09:34:29"/>
 </users>
 </file>
 

--- a/update_data/data/suning_biu/qa/问  答.xlsx
+++ b/update_data/data/suning_biu/qa/问  答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="315" windowWidth="18180" windowHeight="13125" firstSheet="3" activeTab="10"/>
+    <workbookView xWindow="2295" yWindow="315" windowWidth="18180" windowHeight="13125" firstSheet="3" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,15 @@
   </sheets>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
-    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="923" activeSheetId="11"/>
+    <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1675" windowHeight="819" activeSheetId="4"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="12"/>
     <customWorkbookView name="tao.xie(谢韬) - 个人视图" guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1500" windowHeight="712" activeSheetId="14"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="12"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1041" uniqueCount="620">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="619">
   <si>
     <t>新用户通过苏宁金融进行会员注册，需要用手机号进行注册。</t>
   </si>
@@ -2831,9 +2831,6 @@
   </si>
   <si>
     <t>必须要绑定人脸？</t>
-  </si>
-  <si>
-    <t>什么是刷脸支付</t>
   </si>
   <si>
     <t>怎么付款并出店</t>
@@ -3139,7 +3136,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0823B17C-AC5F-4166-929F-DCDD0612269D}" diskRevisions="1" revisionId="1696" version="353">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A40567DF-0E06-4C92-B448-B4DEA35CCD34}" diskRevisions="1" revisionId="1698" version="354">
   <header guid="{BAD164E4-F9DB-4F97-8CA8-80DCD8C4C292}" dateTime="2017-11-06T10:35:58" maxSheetId="15" userName="lulu.wang(王路路)" r:id="rId61" minRId="91" maxRId="101">
     <sheetIdMap count="14">
       <sheetId val="1"/>
@@ -8414,6 +8411,24 @@
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
+  <header guid="{A40567DF-0E06-4C92-B448-B4DEA35CCD34}" dateTime="2018-01-28T14:23:31" maxSheetId="15" userName="fang.gao(高芳)" r:id="rId354" minRId="1697" maxRId="1698">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="14"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -35678,6 +35693,29 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog8.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1697" sId="4">
+    <oc r="F4" t="inlineStr">
+      <is>
+        <t>什么是刷脸支付</t>
+      </is>
+    </oc>
+    <nc r="F4"/>
+  </rcc>
+  <rcc rId="1698" sId="4">
+    <oc r="F5" t="inlineStr">
+      <is>
+        <t>什么是刷脸支付</t>
+      </is>
+    </oc>
+    <nc r="F5"/>
+  </rcc>
+  <rcv guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" action="delete"/>
+  <rcv guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog80.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rcc rId="168" sId="1">
@@ -37247,13 +37285,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" scale="115" topLeftCell="A4">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}" scale="115">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}" scale="115">
-      <selection activeCell="B4" sqref="B4"/>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" scale="115" topLeftCell="A4">
+      <selection activeCell="B6" sqref="B6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -37807,13 +37845,13 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" scale="115" topLeftCell="A11">
-      <selection activeCell="C18" sqref="C18"/>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}" scale="115">
+      <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}" scale="115">
-      <selection activeCell="C2" sqref="C2"/>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" scale="115" topLeftCell="A11">
+      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
@@ -37845,7 +37883,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -38109,7 +38147,7 @@
         <v>571</v>
       </c>
       <c r="C15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D15" s="26" t="s">
         <v>572</v>
@@ -38137,16 +38175,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="A12">
       <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -38473,12 +38511,12 @@
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="D10" sqref="D10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A7">
       <selection activeCell="A7" sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="D10" sqref="D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -38514,15 +38552,15 @@
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="B7" sqref="B7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="B4">
       <selection activeCell="C4" sqref="C4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-    </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="B7" sqref="B7"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -38549,12 +38587,12 @@
       <selection activeCell="R7" sqref="R7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -39103,12 +39141,12 @@
       <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="C8" sqref="C8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A16">
       <selection activeCell="A22" sqref="A22:XFD22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="C8" sqref="C8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -39705,12 +39743,12 @@
       <selection activeCell="E19" sqref="E19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="B2" sqref="B2"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A10">
       <selection activeCell="A13" sqref="A13:XFD13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -39743,8 +39781,8 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -39839,9 +39877,7 @@
       <c r="E4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>617</v>
-      </c>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
@@ -39859,9 +39895,7 @@
       <c r="E5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>617</v>
-      </c>
+      <c r="F5" s="23"/>
     </row>
     <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
@@ -40013,18 +40047,18 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" showPageBreaks="1" fitToPage="1" topLeftCell="A7">
-      <selection activeCell="F8" sqref="F8"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" showPageBreaks="1" fitToPage="1">
+      <selection activeCell="F5" sqref="F5"/>
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A7">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="D13" sqref="D13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="D13" sqref="D13"/>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A7">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
     </customSheetView>
@@ -40264,12 +40298,12 @@
       <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="D10" sqref="D10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
       <selection activeCell="B22" sqref="B22"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="D10" sqref="D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -40352,7 +40386,7 @@
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
@@ -40372,7 +40406,7 @@
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -40543,12 +40577,12 @@
       <selection activeCell="F5" sqref="F5:F6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="D12" sqref="D12"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -40719,12 +40753,12 @@
       <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="D6" sqref="D6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
       <selection activeCell="B4" sqref="B4"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="D6" sqref="D6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -41016,12 +41050,12 @@
       <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="D11" sqref="D11"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
       <selection sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -41331,12 +41365,12 @@
       <selection activeCell="D7" sqref="D7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
+    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
+      <selection activeCell="A3" sqref="A3"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A10">
       <selection activeCell="A10" sqref="A1:XFD1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
-      <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>

--- a/update_data/data/suning_biu/qa/问  答.xlsx
+++ b/update_data/data/suning_biu/qa/问  答.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="315" windowWidth="18180" windowHeight="13125" firstSheet="3" activeTab="3"/>
+    <workbookView xWindow="2295" yWindow="315" windowWidth="18180" windowHeight="12720" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="下载" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,16 @@
   </sheets>
   <calcPr calcId="122211"/>
   <customWorkbookViews>
+    <customWorkbookView name="xin.zheng(郑新) - 个人视图" guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1531" windowHeight="693" activeSheetId="3"/>
+    <customWorkbookView name="tao.xie(谢韬) - 个人视图" guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1500" windowHeight="712" activeSheetId="14"/>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="12"/>
     <customWorkbookView name="fang.gao(高芳) - 个人视图" guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1675" windowHeight="819" activeSheetId="4"/>
-    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="12"/>
-    <customWorkbookView name="tao.xie(谢韬) - 个人视图" guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1500" windowHeight="712" activeSheetId="14"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1039" uniqueCount="619">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1038" uniqueCount="618">
   <si>
     <t>新用户通过苏宁金融进行会员注册，需要用手机号进行注册。</t>
   </si>
@@ -1019,9 +1020,6 @@
   </si>
   <si>
     <t>支付密码有什么讲究么</t>
-  </si>
-  <si>
-    <t>身份证怎么绑定/绑定身份证需要做什么/我需要怎么绑定身份证/你知道怎么绑定身份证吗/你知道身份证怎么绑定吗/你能跟我说我该怎么绑定身份证吗/我不知道怎么绑定身份证/你知道怎么绑定身份证吗/</t>
   </si>
   <si>
     <t>身为无人店小助手，旺宝不能离无人店太远，那你猜无人店在哪</t>
@@ -3136,7 +3134,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{A40567DF-0E06-4C92-B448-B4DEA35CCD34}" diskRevisions="1" revisionId="1698" version="354">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{0D273265-FFBC-452F-8A53-C7D0FFFE96B6}" diskRevisions="1" revisionId="1699" version="355">
   <header guid="{BAD164E4-F9DB-4F97-8CA8-80DCD8C4C292}" dateTime="2017-11-06T10:35:58" maxSheetId="15" userName="lulu.wang(王路路)" r:id="rId61" minRId="91" maxRId="101">
     <sheetIdMap count="14">
       <sheetId val="1"/>
@@ -8429,6 +8427,24 @@
       <sheetId val="13"/>
     </sheetIdMap>
   </header>
+  <header guid="{0D273265-FFBC-452F-8A53-C7D0FFFE96B6}" dateTime="2018-02-09T09:14:13" maxSheetId="15" userName="xin.zheng(郑新)" r:id="rId355" minRId="1699">
+    <sheetIdMap count="14">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+      <sheetId val="5"/>
+      <sheetId val="6"/>
+      <sheetId val="7"/>
+      <sheetId val="8"/>
+      <sheetId val="9"/>
+      <sheetId val="10"/>
+      <sheetId val="11"/>
+      <sheetId val="12"/>
+      <sheetId val="14"/>
+      <sheetId val="13"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -36402,6 +36418,20 @@
 </revisions>
 </file>
 
+<file path=xl/revisions/revisionLog9.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1699" sId="3">
+    <oc r="G10" t="inlineStr">
+      <is>
+        <t>身份证怎么绑定/绑定身份证需要做什么/我需要怎么绑定身份证/你知道怎么绑定身份证吗/你知道身份证怎么绑定吗/你能跟我说我该怎么绑定身份证吗/我不知道怎么绑定身份证/你知道怎么绑定身份证吗/</t>
+      </is>
+    </oc>
+    <nc r="G10"/>
+  </rcc>
+  <rcv guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" action="add"/>
+</revisions>
+</file>
+
 <file path=xl/revisions/revisionLog90.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <rfmt sheetId="2" sqref="A26" start="0" length="0">
@@ -37093,7 +37123,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -37116,16 +37146,16 @@
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>84</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>83</v>
@@ -37139,16 +37169,16 @@
     </row>
     <row r="3" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
         <v>84</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -37162,16 +37192,16 @@
     </row>
     <row r="4" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
         <v>218</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -37179,7 +37209,7 @@
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="201.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>230</v>
@@ -37202,13 +37232,13 @@
     </row>
     <row r="6" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B6" t="s">
         <v>232</v>
       </c>
       <c r="C6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>233</v>
@@ -37222,7 +37252,7 @@
     </row>
     <row r="7" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B7" t="s">
         <v>234</v>
@@ -37242,7 +37272,7 @@
     </row>
     <row r="8" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>80</v>
@@ -37262,16 +37292,16 @@
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>85</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>33</v>
@@ -37280,20 +37310,25 @@
     <row r="29" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" scale="115">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" scale="115">
       <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" scale="115" topLeftCell="A4">
+      <selection activeCell="B6" sqref="B6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}" scale="115">
       <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" scale="115" topLeftCell="A4">
-      <selection activeCell="B6" sqref="B6"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" scale="115">
+      <selection activeCell="C19" sqref="C19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -37315,7 +37350,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -37337,7 +37372,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -37360,16 +37395,16 @@
     </row>
     <row r="2" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>489</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>490</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>491</v>
       </c>
       <c r="C2" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>33</v>
@@ -37377,16 +37412,16 @@
     </row>
     <row r="3" spans="1:7" s="7" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>75</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E3" s="13" t="s">
         <v>30</v>
@@ -37394,16 +37429,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -37411,16 +37446,16 @@
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>109</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>110</v>
@@ -37429,16 +37464,16 @@
     </row>
     <row r="6" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>111</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>112</v>
@@ -37446,16 +37481,16 @@
     </row>
     <row r="7" spans="1:7" s="11" customFormat="1" ht="36.75" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>113</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>114</v>
@@ -37463,16 +37498,16 @@
     </row>
     <row r="8" spans="1:7" s="11" customFormat="1" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C8" s="14" t="s">
         <v>115</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>116</v>
@@ -37480,16 +37515,16 @@
     </row>
     <row r="9" spans="1:7" s="11" customFormat="1" ht="81" x14ac:dyDescent="0.2">
       <c r="A9" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>196</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="E9" s="11" t="s">
         <v>117</v>
@@ -37497,16 +37532,16 @@
     </row>
     <row r="10" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>118</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="E10" s="11" t="s">
         <v>119</v>
@@ -37514,16 +37549,16 @@
     </row>
     <row r="11" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A11" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B11" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C11" t="s">
         <v>182</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>119</v>
@@ -37531,16 +37566,16 @@
     </row>
     <row r="12" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>120</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E12" s="11" t="s">
         <v>121</v>
@@ -37548,16 +37583,16 @@
     </row>
     <row r="13" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>122</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E13" s="11" t="s">
         <v>117</v>
@@ -37565,16 +37600,16 @@
     </row>
     <row r="14" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>123</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E14" s="11" t="s">
         <v>119</v>
@@ -37582,16 +37617,16 @@
     </row>
     <row r="15" spans="1:7" s="11" customFormat="1" ht="75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>183</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E15" s="11" t="s">
         <v>184</v>
@@ -37599,16 +37634,16 @@
     </row>
     <row r="16" spans="1:7" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>185</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E16" s="11" t="s">
         <v>186</v>
@@ -37616,16 +37651,16 @@
     </row>
     <row r="17" spans="1:6" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>124</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>125</v>
@@ -37633,16 +37668,16 @@
     </row>
     <row r="18" spans="1:6" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>132</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>29</v>
@@ -37653,10 +37688,10 @@
     </row>
     <row r="19" spans="1:6" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>95</v>
@@ -37670,16 +37705,16 @@
     </row>
     <row r="20" spans="1:6" s="11" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>133</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>31</v>
@@ -37687,16 +37722,16 @@
     </row>
     <row r="21" spans="1:6" s="11" customFormat="1" ht="72" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>128</v>
@@ -37704,16 +37739,16 @@
     </row>
     <row r="22" spans="1:6" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>134</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>129</v>
@@ -37721,16 +37756,16 @@
     </row>
     <row r="23" spans="1:6" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>135</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>129</v>
@@ -37738,16 +37773,16 @@
     </row>
     <row r="24" spans="1:6" s="11" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>136</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E24" s="11" t="s">
         <v>137</v>
@@ -37755,16 +37790,16 @@
     </row>
     <row r="25" spans="1:6" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C25" s="4" t="s">
         <v>138</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E25" s="11" t="s">
         <v>127</v>
@@ -37772,16 +37807,16 @@
     </row>
     <row r="26" spans="1:6" s="11" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>140</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>137</v>
@@ -37789,16 +37824,16 @@
     </row>
     <row r="27" spans="1:6" s="18" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C27" s="18" t="s">
         <v>141</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E27" s="18" t="s">
         <v>129</v>
@@ -37806,16 +37841,16 @@
     </row>
     <row r="28" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C28" t="s">
         <v>188</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>144</v>
@@ -37823,16 +37858,16 @@
     </row>
     <row r="29" spans="1:6" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A29" s="23" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B29" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C29" t="s">
         <v>27</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>33</v>
@@ -37840,20 +37875,25 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" scale="115" topLeftCell="A16">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" scale="115" topLeftCell="A16">
       <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" scale="115" topLeftCell="A11">
+      <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}" scale="115">
       <selection activeCell="C2" sqref="C2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" scale="115" topLeftCell="A11">
-      <selection activeCell="C18" sqref="C18"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" scale="115" topLeftCell="A16">
+      <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -37875,7 +37915,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -37897,7 +37937,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>187</v>
@@ -37920,16 +37960,16 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>543</v>
+      </c>
+      <c r="B2" t="s">
         <v>544</v>
-      </c>
-      <c r="B2" t="s">
-        <v>545</v>
       </c>
       <c r="C2" t="s">
         <v>101</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E2" t="s">
         <v>102</v>
@@ -37937,16 +37977,16 @@
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B3" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C3" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -37954,16 +37994,16 @@
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C4" t="s">
         <v>59</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>29</v>
@@ -37971,16 +38011,16 @@
     </row>
     <row r="5" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B5" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C5" t="s">
         <v>56</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -37988,16 +38028,16 @@
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B6" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C6" t="s">
         <v>66</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>29</v>
@@ -38005,16 +38045,16 @@
     </row>
     <row r="7" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B7" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C7" t="s">
         <v>64</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>29</v>
@@ -38022,16 +38062,16 @@
     </row>
     <row r="8" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C8" t="s">
         <v>68</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>30</v>
@@ -38039,16 +38079,16 @@
     </row>
     <row r="9" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B9" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C9" t="s">
         <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>29</v>
@@ -38056,16 +38096,16 @@
     </row>
     <row r="10" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B10" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C10" t="s">
         <v>57</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -38073,16 +38113,16 @@
     </row>
     <row r="11" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C11" t="s">
         <v>63</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>29</v>
@@ -38090,16 +38130,16 @@
     </row>
     <row r="12" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C12" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
@@ -38107,16 +38147,16 @@
     </row>
     <row r="13" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B13" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C13" t="s">
         <v>60</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>30</v>
@@ -38124,16 +38164,16 @@
     </row>
     <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C14" t="s">
         <v>62</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>67</v>
@@ -38141,16 +38181,16 @@
     </row>
     <row r="15" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B15" t="s">
+        <v>570</v>
+      </c>
+      <c r="C15" t="s">
+        <v>617</v>
+      </c>
+      <c r="D15" s="26" t="s">
         <v>571</v>
-      </c>
-      <c r="C15" t="s">
-        <v>618</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>572</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>33</v>
@@ -38158,16 +38198,16 @@
     </row>
     <row r="16" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B16" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C16" t="s">
         <v>53</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>33</v>
@@ -38175,16 +38215,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="A12">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" topLeftCell="A12">
       <selection activeCell="C18" sqref="C18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="B3" sqref="B3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="A12">
+      <selection activeCell="C18" sqref="C18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -38228,7 +38272,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>197</v>
@@ -38251,16 +38295,16 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>575</v>
+      </c>
+      <c r="B2" t="s">
         <v>576</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>250</v>
+      </c>
+      <c r="D2" t="s">
         <v>577</v>
-      </c>
-      <c r="C2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D2" t="s">
-        <v>578</v>
       </c>
       <c r="E2" t="s">
         <v>30</v>
@@ -38268,16 +38312,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
         <v>579</v>
-      </c>
-      <c r="C3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" t="s">
-        <v>580</v>
       </c>
       <c r="E3" t="s">
         <v>29</v>
@@ -38285,16 +38329,16 @@
     </row>
     <row r="4" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C4" t="s">
         <v>202</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="E4" t="s">
         <v>33</v>
@@ -38302,16 +38346,16 @@
     </row>
     <row r="5" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B5" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C5" t="s">
         <v>209</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E5" t="s">
         <v>83</v>
@@ -38320,16 +38364,16 @@
     </row>
     <row r="6" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B6" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C6" t="s">
         <v>203</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E6" t="s">
         <v>102</v>
@@ -38337,16 +38381,16 @@
     </row>
     <row r="7" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B7" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C7" t="s">
         <v>204</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E7" t="s">
         <v>102</v>
@@ -38354,16 +38398,16 @@
     </row>
     <row r="8" spans="1:7" s="20" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C8" t="s">
         <v>205</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E8" t="s">
         <v>102</v>
@@ -38371,16 +38415,16 @@
     </row>
     <row r="9" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C9" t="s">
         <v>206</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E9" t="s">
         <v>207</v>
@@ -38388,16 +38432,16 @@
     </row>
     <row r="10" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C10" t="s">
         <v>208</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E10" t="s">
         <v>207</v>
@@ -38405,16 +38449,16 @@
     </row>
     <row r="11" spans="1:7" s="21" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C11" s="22" t="s">
         <v>210</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E11" s="21" t="s">
         <v>30</v>
@@ -38422,16 +38466,16 @@
     </row>
     <row r="12" spans="1:7" s="21" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C12" s="22" t="s">
         <v>211</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E12" s="21" t="s">
         <v>29</v>
@@ -38439,16 +38483,16 @@
     </row>
     <row r="13" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B13" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>212</v>
       </c>
       <c r="D13" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E13" t="s">
         <v>33</v>
@@ -38456,16 +38500,16 @@
     </row>
     <row r="14" spans="1:7" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C14" s="22" t="s">
         <v>213</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E14" s="21" t="s">
         <v>83</v>
@@ -38473,16 +38517,16 @@
     </row>
     <row r="15" spans="1:7" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="C15" s="22" t="s">
         <v>214</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E15" s="21" t="s">
         <v>30</v>
@@ -38490,16 +38534,16 @@
     </row>
     <row r="16" spans="1:7" s="21" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C16" s="22" t="s">
         <v>215</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E16" s="21" t="s">
         <v>30</v>
@@ -38507,16 +38551,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="A10">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" topLeftCell="A10">
       <selection activeCell="F8" sqref="F8"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A7">
+      <selection activeCell="A7" sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="D10" sqref="D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A7">
-      <selection activeCell="A7" sqref="A1:XFD1048576"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="A10">
+      <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -38547,25 +38595,30 @@
   </cols>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}">
       <selection activeCell="C35" sqref="C35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="B4">
+      <selection activeCell="C4" sqref="C4"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="B7" sqref="B7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="B4">
-      <selection activeCell="C4" sqref="C4"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+      <selection activeCell="C35" sqref="C35"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -38583,19 +38636,23 @@
   </cols>
   <sheetData/>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="B1">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" topLeftCell="B1">
       <selection activeCell="R7" sqref="R7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
+      <selection activeCell="C7" sqref="C7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
     </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="C7" sqref="C7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
-      <selection activeCell="C7" sqref="C7"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="B1">
+      <selection activeCell="R7" sqref="R7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -38621,7 +38678,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -38644,10 +38701,10 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" t="s">
         <v>264</v>
-      </c>
-      <c r="B2" t="s">
-        <v>265</v>
       </c>
       <c r="C2" t="s">
         <v>48</v>
@@ -38662,16 +38719,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>33</v>
@@ -38680,16 +38737,16 @@
     </row>
     <row r="4" spans="1:7" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" t="s">
         <v>45</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>226</v>
@@ -38697,16 +38754,16 @@
     </row>
     <row r="5" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C5" t="s">
         <v>46</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>227</v>
@@ -38714,16 +38771,16 @@
     </row>
     <row r="6" spans="1:7" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C6" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>83</v>
@@ -38734,16 +38791,16 @@
     </row>
     <row r="7" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>30</v>
@@ -38754,16 +38811,16 @@
     </row>
     <row r="8" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>29</v>
@@ -38774,16 +38831,16 @@
     </row>
     <row r="9" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>33</v>
@@ -38794,16 +38851,16 @@
     </row>
     <row r="10" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C10" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>83</v>
@@ -38814,16 +38871,16 @@
     </row>
     <row r="11" spans="1:7" ht="80.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="31" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>40</v>
@@ -38832,16 +38889,16 @@
     </row>
     <row r="12" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>30</v>
@@ -38852,16 +38909,16 @@
     </row>
     <row r="13" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C13" t="s">
         <v>0</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>33</v>
@@ -38872,10 +38929,10 @@
     </row>
     <row r="14" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
@@ -38890,16 +38947,16 @@
     </row>
     <row r="15" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C15" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>29</v>
@@ -38908,16 +38965,16 @@
     </row>
     <row r="16" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C16" t="s">
         <v>71</v>
       </c>
       <c r="D16" s="32" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>33</v>
@@ -38931,16 +38988,16 @@
     </row>
     <row r="17" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
       <c r="D17" s="31" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>39</v>
@@ -38952,16 +39009,16 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B18" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C18" t="s">
         <v>19</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>83</v>
@@ -38972,16 +39029,16 @@
     </row>
     <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C19" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>30</v>
@@ -38992,16 +39049,16 @@
     </row>
     <row r="20" spans="1:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B20" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>29</v>
@@ -39009,16 +39066,16 @@
     </row>
     <row r="21" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C21" s="23" t="s">
         <v>219</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>30</v>
@@ -39029,16 +39086,16 @@
     </row>
     <row r="22" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B22" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C22" s="23" t="s">
         <v>220</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E22" s="11" t="s">
         <v>83</v>
@@ -39046,16 +39103,16 @@
     </row>
     <row r="23" spans="1:7" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B23" s="23" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C23" s="23" t="s">
         <v>221</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E23" s="11" t="s">
         <v>33</v>
@@ -39066,16 +39123,16 @@
     </row>
     <row r="24" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B24" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C24" t="s">
         <v>146</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>129</v>
@@ -39083,16 +39140,16 @@
     </row>
     <row r="25" spans="1:7" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>131</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>33</v>
@@ -39103,16 +39160,16 @@
     </row>
     <row r="26" spans="1:7" s="28" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B26" s="30" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C26" s="29" t="s">
         <v>222</v>
       </c>
       <c r="D26" s="29" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E26" s="28" t="s">
         <v>83</v>
@@ -39120,16 +39177,16 @@
     </row>
     <row r="27" spans="1:7" s="28" customFormat="1" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B27" s="30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C27" s="29" t="s">
         <v>225</v>
       </c>
       <c r="D27" s="29" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E27" s="28" t="s">
         <v>226</v>
@@ -39137,16 +39194,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}">
       <selection activeCell="E18" sqref="E18"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A16">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="C8" sqref="C8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A16">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+      <selection activeCell="E18" sqref="E18"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -39176,8 +39237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="D7" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -39190,7 +39251,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -39213,10 +39274,10 @@
     </row>
     <row r="2" spans="1:7" ht="189" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="B2" t="s">
         <v>314</v>
-      </c>
-      <c r="B2" t="s">
-        <v>315</v>
       </c>
       <c r="C2" t="s">
         <v>99</v>
@@ -39231,16 +39292,16 @@
     </row>
     <row r="3" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C3" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="8" t="s">
@@ -39249,16 +39310,16 @@
     </row>
     <row r="4" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s">
@@ -39267,16 +39328,16 @@
     </row>
     <row r="5" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -39284,16 +39345,16 @@
     </row>
     <row r="6" spans="1:7" ht="54" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C6" t="s">
         <v>192</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s">
@@ -39302,16 +39363,16 @@
     </row>
     <row r="7" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C7" t="s">
         <v>191</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>29</v>
@@ -39320,16 +39381,16 @@
     </row>
     <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C8" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s">
@@ -39338,16 +39399,16 @@
     </row>
     <row r="9" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C9" t="s">
         <v>72</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>33</v>
@@ -39356,36 +39417,34 @@
     </row>
     <row r="10" spans="1:7" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C10" t="s">
         <v>104</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="23" t="s">
-        <v>243</v>
-      </c>
+      <c r="G10" s="23"/>
     </row>
     <row r="11" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C11" t="s">
         <v>105</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -39393,16 +39452,16 @@
     </row>
     <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C12" t="s">
         <v>12</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>29</v>
@@ -39410,16 +39469,16 @@
     </row>
     <row r="13" spans="1:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C13" t="s">
         <v>71</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s">
@@ -39431,16 +39490,16 @@
     </row>
     <row r="14" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B14" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C14" t="s">
         <v>73</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s">
@@ -39452,16 +39511,16 @@
     </row>
     <row r="15" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A15" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C15" t="s">
         <v>151</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>31</v>
@@ -39470,16 +39529,16 @@
     </row>
     <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A16" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>29</v>
@@ -39488,16 +39547,16 @@
     </row>
     <row r="17" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C17" t="s">
         <v>18</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>29</v>
@@ -39506,16 +39565,16 @@
     </row>
     <row r="18" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B18" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C18" t="s">
         <v>147</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s">
@@ -39527,16 +39586,16 @@
     </row>
     <row r="19" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C19" t="s">
         <v>148</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>31</v>
@@ -39544,7 +39603,7 @@
     </row>
     <row r="20" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B20" t="s">
         <v>149</v>
@@ -39562,16 +39621,16 @@
     </row>
     <row r="21" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C21" t="s">
         <v>152</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>33</v>
@@ -39579,16 +39638,16 @@
     </row>
     <row r="22" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A22" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C22" t="s">
         <v>153</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>29</v>
@@ -39596,16 +39655,16 @@
     </row>
     <row r="23" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>107</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F23" s="11" t="s">
         <v>106</v>
@@ -39613,16 +39672,16 @@
     </row>
     <row r="24" spans="1:7" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A24" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C24" s="18" t="s">
         <v>143</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>103</v>
@@ -39630,16 +39689,16 @@
     </row>
     <row r="25" spans="1:7" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A25" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C25" s="18" t="s">
         <v>145</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E25" s="18" t="s">
         <v>144</v>
@@ -39647,16 +39706,16 @@
     </row>
     <row r="26" spans="1:7" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A26" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C26" t="s">
         <v>189</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>33</v>
@@ -39665,16 +39724,16 @@
     </row>
     <row r="27" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="23" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C27" t="s">
         <v>190</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>33</v>
@@ -39683,72 +39742,76 @@
     </row>
     <row r="28" spans="1:7" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A28" s="23" t="s">
+        <v>605</v>
+      </c>
+      <c r="B28" s="18" t="s">
         <v>606</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="C28" s="18" t="s">
         <v>607</v>
       </c>
-      <c r="C28" s="18" t="s">
+      <c r="D28" s="18" t="s">
         <v>608</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="29" spans="1:7" s="20" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A29" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C29" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D29" s="36" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="30" spans="1:7" s="20" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A30" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D30" s="36" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="31" spans="1:7" s="20" customFormat="1" ht="81" x14ac:dyDescent="0.15">
       <c r="A31" s="20" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C31" s="20" t="s">
         <v>147</v>
       </c>
       <c r="D31" s="36" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="A13">
-      <selection activeCell="E19" sqref="E19"/>
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" topLeftCell="D7">
+      <selection activeCell="G10" sqref="G10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A10">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="B2" sqref="B2"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A10">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="A13">
+      <selection activeCell="E19" sqref="E19"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -39781,7 +39844,7 @@
   </sheetPr>
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -39797,7 +39860,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -39820,36 +39883,36 @@
     </row>
     <row r="2" spans="1:7" ht="108" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B2" t="s">
         <v>362</v>
-      </c>
-      <c r="B2" t="s">
-        <v>363</v>
       </c>
       <c r="C2" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F2" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C3" t="s">
         <v>147</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>30</v>
@@ -39863,16 +39926,16 @@
     </row>
     <row r="4" spans="1:7" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C4" t="s">
         <v>154</v>
       </c>
       <c r="D4" s="31" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -39881,16 +39944,16 @@
     </row>
     <row r="5" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C5" t="s">
         <v>155</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>33</v>
@@ -39899,16 +39962,16 @@
     </row>
     <row r="6" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>156</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>226</v>
@@ -39919,16 +39982,16 @@
     </row>
     <row r="7" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>193</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>83</v>
@@ -39939,16 +40002,16 @@
     </row>
     <row r="8" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C8" t="s">
         <v>157</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -39956,16 +40019,16 @@
     </row>
     <row r="9" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C9" t="s">
         <v>194</v>
       </c>
       <c r="D9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>195</v>
@@ -39973,16 +40036,16 @@
     </row>
     <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C10" t="s">
         <v>158</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>30</v>
@@ -39990,16 +40053,16 @@
     </row>
     <row r="11" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C11" t="s">
         <v>158</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -40007,16 +40070,16 @@
     </row>
     <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B12" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C12" t="s">
         <v>156</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>83</v>
@@ -40027,40 +40090,45 @@
     </row>
     <row r="13" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C13" t="s">
         <v>159</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F13" s="23" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" showPageBreaks="1" fitToPage="1">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" fitToPage="1">
       <selection activeCell="F5" sqref="F5"/>
       <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId1"/>
     </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A7">
+      <selection activeCell="A13" sqref="A13:XFD13"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+    </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="D13" sqref="D13"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
+      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A7">
-      <selection activeCell="A13" sqref="A13:XFD13"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId3"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" showPageBreaks="1" fitToPage="1">
+      <selection activeCell="F5" sqref="F5"/>
+      <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId4"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -40082,7 +40150,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId4"/>
+  <pageSetup paperSize="9" scale="76" fitToHeight="0" orientation="landscape" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -40104,7 +40172,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -40127,16 +40195,16 @@
     </row>
     <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>386</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>387</v>
       </c>
       <c r="C2" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>30</v>
@@ -40145,16 +40213,16 @@
     </row>
     <row r="3" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C3" t="s">
         <v>160</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>33</v>
@@ -40162,16 +40230,16 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>83</v>
@@ -40179,16 +40247,16 @@
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B5" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C5" t="s">
         <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>29</v>
@@ -40196,16 +40264,16 @@
     </row>
     <row r="6" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C6" t="s">
         <v>161</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>83</v>
@@ -40216,16 +40284,16 @@
     </row>
     <row r="7" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C7" t="s">
         <v>162</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>33</v>
@@ -40233,16 +40301,16 @@
     </row>
     <row r="8" spans="1:7" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B8" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C8" t="s">
         <v>90</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="E8" s="11" t="s">
         <v>29</v>
@@ -40250,16 +40318,16 @@
     </row>
     <row r="9" spans="1:7" s="18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B9" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C9" t="s">
         <v>163</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>129</v>
@@ -40267,16 +40335,16 @@
     </row>
     <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>83</v>
@@ -40294,16 +40362,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="B1">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" topLeftCell="B1">
       <selection activeCell="E10" sqref="E10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
+      <selection activeCell="B22" sqref="B22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="D10" sqref="D10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
-      <selection activeCell="B22" sqref="B22"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="B1">
+      <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -40348,7 +40420,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -40371,56 +40443,56 @@
     </row>
     <row r="2" spans="1:7" ht="229.5" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" t="s">
         <v>405</v>
-      </c>
-      <c r="B2" t="s">
-        <v>406</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C3" t="s">
         <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C4" t="s">
         <v>51</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>33</v>
@@ -40431,16 +40503,16 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C5" t="s">
         <v>15</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -40448,16 +40520,16 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C6" t="s">
         <v>42</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>33</v>
@@ -40468,16 +40540,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C7" t="s">
         <v>58</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>30</v>
@@ -40485,16 +40557,16 @@
     </row>
     <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A8" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C8" t="s">
         <v>79</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>33</v>
@@ -40502,16 +40574,16 @@
     </row>
     <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B9" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C9" t="s">
         <v>87</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -40519,16 +40591,16 @@
     </row>
     <row r="10" spans="1:7" ht="37.5" x14ac:dyDescent="0.15">
       <c r="A10" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C10" t="s">
         <v>98</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>83</v>
@@ -40539,16 +40611,16 @@
     </row>
     <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A11" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C11" t="s">
         <v>126</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -40556,16 +40628,16 @@
     </row>
     <row r="12" spans="1:7" s="18" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A12" s="23" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C12" s="18" t="s">
         <v>79</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>127</v>
@@ -40573,16 +40645,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}">
       <selection activeCell="F5" sqref="F5:F6"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="D12" sqref="D12"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+      <selection activeCell="F5" sqref="F5:F6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -40626,7 +40702,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -40649,16 +40725,16 @@
     </row>
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="23" t="s">
+        <v>428</v>
+      </c>
+      <c r="B2" t="s">
         <v>429</v>
-      </c>
-      <c r="B2" t="s">
-        <v>430</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>223</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>29</v>
@@ -40666,16 +40742,16 @@
     </row>
     <row r="3" spans="1:7" ht="81" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C3" t="s">
         <v>164</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>29</v>
@@ -40683,16 +40759,16 @@
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C4" t="s">
         <v>216</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>30</v>
@@ -40706,16 +40782,16 @@
     </row>
     <row r="5" spans="1:7" s="11" customFormat="1" ht="27.75" x14ac:dyDescent="0.2">
       <c r="A5" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E5" s="11" t="s">
         <v>83</v>
@@ -40729,16 +40805,16 @@
     </row>
     <row r="6" spans="1:7" s="11" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>139</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>227</v>
@@ -40749,16 +40825,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}">
       <selection activeCell="D5" sqref="D5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
+      <selection activeCell="B4" sqref="B4"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="D6" sqref="D6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
-      <selection activeCell="B4" sqref="B4"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+      <selection activeCell="D5" sqref="D5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -40804,7 +40884,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -40827,16 +40907,16 @@
     </row>
     <row r="2" spans="1:7" s="11" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A2" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>440</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>441</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>30</v>
@@ -40850,16 +40930,16 @@
     </row>
     <row r="3" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C3" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>83</v>
@@ -40873,16 +40953,16 @@
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C4" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E4" s="11" t="s">
         <v>227</v>
@@ -40896,16 +40976,16 @@
     </row>
     <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C5" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>30</v>
@@ -40919,16 +40999,16 @@
     </row>
     <row r="6" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B6" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C6" t="s">
         <v>70</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E6" s="11" t="s">
         <v>83</v>
@@ -40942,16 +41022,16 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B7" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C7" t="s">
         <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="E7" s="11" t="s">
         <v>227</v>
@@ -40965,16 +41045,16 @@
     </row>
     <row r="8" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B8" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E8" t="s">
         <v>165</v>
@@ -40985,16 +41065,16 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B9" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C9" t="s">
         <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>33</v>
@@ -41008,16 +41088,16 @@
     </row>
     <row r="10" spans="1:7" ht="68.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C10" t="s">
         <v>74</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s">
@@ -41029,16 +41109,16 @@
     </row>
     <row r="11" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E11" s="11" t="s">
         <v>83</v>
@@ -41046,16 +41126,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}">
       <selection activeCell="E10" sqref="E10"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
+      <selection sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="D11" sqref="D11"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}">
-      <selection sqref="A1:XFD1048576"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}">
+      <selection activeCell="E10" sqref="E10"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -41099,7 +41183,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="23" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -41122,16 +41206,16 @@
     </row>
     <row r="2" spans="1:7" s="9" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="9" t="s">
+        <v>460</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>461</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>462</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>52</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E2" s="10" t="s">
         <v>30</v>
@@ -41139,16 +41223,16 @@
     </row>
     <row r="3" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C3" t="s">
         <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>30</v>
@@ -41157,16 +41241,16 @@
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>465</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>466</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>467</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>166</v>
@@ -41174,16 +41258,16 @@
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>167</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>165</v>
@@ -41191,16 +41275,16 @@
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>168</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>165</v>
@@ -41208,16 +41292,16 @@
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>169</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>170</v>
@@ -41225,16 +41309,16 @@
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="108" x14ac:dyDescent="0.15">
       <c r="A8" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>171</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>170</v>
@@ -41242,16 +41326,16 @@
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A9" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>172</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>173</v>
@@ -41259,16 +41343,16 @@
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.15">
       <c r="A10" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>174</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>173</v>
@@ -41276,16 +41360,16 @@
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="94.5" x14ac:dyDescent="0.15">
       <c r="A11" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>175</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>176</v>
@@ -41293,16 +41377,16 @@
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A12" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>177</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>173</v>
@@ -41310,16 +41394,16 @@
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="54" x14ac:dyDescent="0.15">
       <c r="A13" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>179</v>
@@ -41327,16 +41411,16 @@
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>173</v>
@@ -41344,16 +41428,16 @@
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>173</v>
@@ -41361,16 +41445,20 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="A4">
+    <customSheetView guid="{FEA0BC44-73B7-4A15-AEEE-204C512F9C0A}" topLeftCell="A4">
       <selection activeCell="D7" sqref="D7"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A10">
+      <selection activeCell="A10" sqref="A1:XFD1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{C0B47578-6D72-41AA-82EC-D6DEA8EE3460}">
       <selection activeCell="A3" sqref="A3"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{0233F1CA-6D1A-46F8-A19C-327E293D323A}" topLeftCell="A10">
-      <selection activeCell="A10" sqref="A1:XFD1048576"/>
+    <customSheetView guid="{3F729037-6F21-4778-8AFA-772D02BF4FD4}" topLeftCell="A4">
+      <selection activeCell="D7" sqref="D7"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
